--- a/artfynd/A 3832-2022.xlsx
+++ b/artfynd/A 3832-2022.xlsx
@@ -806,7 +806,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66755351</v>
+        <v>60475415</v>
       </c>
       <c r="B3" t="n">
         <v>102569</v>
@@ -859,7 +859,7 @@
         <v>7329924.373535327</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-07-17</t>
+          <t>2016-07-06</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-07-17</t>
+          <t>2016-07-06</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Återfynd.</t>
+          <t>Enstaka blommande ex</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -918,12 +918,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Dennis Nyström</t>
+          <t>Göran Frisk</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Dennis Nyström, Sofia Lund</t>
+          <t>Göran Frisk, Kristina Nygren Frisk</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
